--- a/Runtime Data/AWS/0.25/0.25_aws_min_runs_with_averages.xlsx
+++ b/Runtime Data/AWS/0.25/0.25_aws_min_runs_with_averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uibkacat-my.sharepoint.com/personal/fabian_dria_student_uibk_ac_at/Documents/Uni/Bachelorarbeit/Evaluation/Execution_AWS/0.25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="13_ncr:40009_{620BE892-EEC7-4455-88EE-0F68A9B9330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{213B0090-8E10-4748-A7C3-547B87B54252}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:40009_{620BE892-EEC7-4455-88EE-0F68A9B9330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B704AD8-C82C-46A3-A871-27CD43897FE7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="721" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9448" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9448" uniqueCount="43">
   <si>
     <t>mProjectPP</t>
   </si>
@@ -121,12 +121,6 @@
     <t>Averages of 5 runs</t>
   </si>
   <si>
-    <t>Bandwith Download</t>
-  </si>
-  <si>
-    <t>Bandwith Upload</t>
-  </si>
-  <si>
     <t>Latency table</t>
   </si>
   <si>
@@ -149,6 +143,30 @@
   </si>
   <si>
     <t>Workflow</t>
+  </si>
+  <si>
+    <t>DT (Avg) [s]</t>
+  </si>
+  <si>
+    <t>Size-DT (Avg) [Bytes]</t>
+  </si>
+  <si>
+    <t>UT (Avg) [s]</t>
+  </si>
+  <si>
+    <t>Size-UT (Avg) [Bytes]</t>
+  </si>
+  <si>
+    <t>ET [s]</t>
+  </si>
+  <si>
+    <t>Memory [MB]</t>
+  </si>
+  <si>
+    <t>Bandwith Download [MB/s]</t>
+  </si>
+  <si>
+    <t>Bandwith Upload [MB/s]</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1476,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>298499</v>
@@ -12899,7 +12917,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>322574</v>
@@ -24340,7 +24358,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>304422</v>
@@ -35781,7 +35799,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>329857</v>
@@ -47222,7 +47240,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>302872</v>
@@ -58210,7 +58228,7 @@
   <dimension ref="A2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58244,40 +58262,40 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -58759,7 +58777,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <f>AVERAGE(admin_minimumAWS_woCold_1:admin_minimumAWS_woCold_5!B12)</f>
@@ -58768,30 +58786,30 @@
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
